--- a/classification/droptc/drone-sbert/unfreeze/24677315/prediction.xlsx
+++ b/classification/droptc/drone-sbert/unfreeze/24677315/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9829145073890686</v>
+        <v>0.7917326092720032</v>
       </c>
     </row>
     <row r="3">
@@ -506,19 +506,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9118503928184509</v>
+        <v>0.9769326448440552</v>
       </c>
     </row>
     <row r="4">
@@ -534,19 +534,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9382598400115967</v>
+        <v>0.9868152141571045</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9966629147529602</v>
+        <v>0.9973172545433044</v>
       </c>
     </row>
     <row r="6">
@@ -590,19 +590,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9966138005256653</v>
+        <v>0.9871752858161926</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9966856837272644</v>
+        <v>0.9973115921020508</v>
       </c>
     </row>
     <row r="8">
@@ -646,19 +646,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.996692419052124</v>
+        <v>0.9864001274108887</v>
       </c>
     </row>
     <row r="9">
@@ -674,19 +674,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4518999457359314</v>
+        <v>0.9860122799873352</v>
       </c>
     </row>
     <row r="10">
@@ -702,19 +702,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9966979026794434</v>
+        <v>0.9420598745346069</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9552963376045227</v>
+        <v>0.9435558915138245</v>
       </c>
     </row>
     <row r="12">
@@ -758,19 +758,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9967047572135925</v>
+        <v>0.9853160977363586</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9966723918914795</v>
+        <v>0.9973335266113281</v>
       </c>
     </row>
     <row r="14">
@@ -814,19 +814,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9826052188873291</v>
+        <v>0.9973449110984802</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9775935411453247</v>
+        <v>0.997302770614624</v>
       </c>
     </row>
     <row r="16">
@@ -870,19 +870,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.996708869934082</v>
+        <v>0.9861844182014465</v>
       </c>
     </row>
     <row r="17">
@@ -898,19 +898,19 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9329344630241394</v>
+        <v>0.9972466230392456</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9756017327308655</v>
+        <v>0.9973166584968567</v>
       </c>
     </row>
     <row r="19">
@@ -954,19 +954,19 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8292694687843323</v>
+        <v>0.9778469800949097</v>
       </c>
     </row>
     <row r="20">
@@ -982,19 +982,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9966451525688171</v>
+        <v>0.9769484400749207</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9966762065887451</v>
+        <v>0.9973052740097046</v>
       </c>
     </row>
     <row r="22">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9167736172676086</v>
+        <v>0.9373015761375427</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9966511130332947</v>
+        <v>0.9923000335693359</v>
       </c>
     </row>
     <row r="24">
@@ -1094,19 +1094,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E24" t="b">
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.974984884262085</v>
+        <v>0.9865423440933228</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9967207312583923</v>
+        <v>0.9921175837516785</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.982795774936676</v>
+        <v>0.9708068370819092</v>
       </c>
     </row>
     <row r="27">
@@ -1178,19 +1178,19 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9453577995300293</v>
+        <v>0.9860746264457703</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9965952038764954</v>
+        <v>0.9973084926605225</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9966863989830017</v>
+        <v>0.9972750544548035</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.996673583984375</v>
+        <v>0.9972820281982422</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9967097043991089</v>
+        <v>0.9693655967712402</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9966115355491638</v>
+        <v>0.9972896575927734</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9966490864753723</v>
+        <v>0.9918501973152161</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E34" t="b">
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9966953992843628</v>
+        <v>0.9769326448440552</v>
       </c>
     </row>
     <row r="35">
@@ -1407,14 +1407,14 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9812316298484802</v>
+        <v>0.9973210692405701</v>
       </c>
     </row>
     <row r="36">
@@ -1430,19 +1430,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E36" t="b">
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9752750396728516</v>
+        <v>0.9973236322402954</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9966840147972107</v>
+        <v>0.997306227684021</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9966302514076233</v>
+        <v>0.9973324537277222</v>
       </c>
     </row>
     <row r="39">
@@ -1514,19 +1514,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E39" t="b">
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9966884255409241</v>
+        <v>0.9769484400749207</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9966676831245422</v>
+        <v>0.9973352551460266</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9966124892234802</v>
+        <v>0.9973347783088684</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E42" t="b">
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9824802279472351</v>
+        <v>0.9973293542861938</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.975762665271759</v>
+        <v>0.9973298311233521</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9823974370956421</v>
+        <v>0.5529232621192932</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.974984884262085</v>
+        <v>0.9973289966583252</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9966895580291748</v>
+        <v>0.9973369240760803</v>
       </c>
     </row>
     <row r="47">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="E47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9963002800941467</v>
+        <v>0.9973515272140503</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9967150688171387</v>
+        <v>0.9450814127922058</v>
       </c>
     </row>
     <row r="49">
@@ -1794,19 +1794,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E49" t="b">
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9966436624526978</v>
+        <v>0.4784350693225861</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8266433477401733</v>
+        <v>0.9972719550132751</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E51" t="b">
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9967221617698669</v>
+        <v>0.7890208959579468</v>
       </c>
     </row>
     <row r="52">
@@ -1878,19 +1878,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E52" t="b">
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9966762065887451</v>
+        <v>0.9920697212219238</v>
       </c>
     </row>
     <row r="53">
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.982795774936676</v>
+        <v>0.9919592142105103</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9966352581977844</v>
+        <v>0.9921935796737671</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9966995120048523</v>
+        <v>0.9973057508468628</v>
       </c>
     </row>
     <row r="56">
@@ -1990,19 +1990,19 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9708002209663391</v>
+        <v>0.9973084926605225</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9965787529945374</v>
+        <v>0.997289776802063</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E58" t="b">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9965407252311707</v>
+        <v>0.9775022864341736</v>
       </c>
     </row>
     <row r="59">
@@ -2074,19 +2074,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E59" t="b">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9963862895965576</v>
+        <v>0.9860779047012329</v>
       </c>
     </row>
     <row r="60">
@@ -2102,19 +2102,19 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E60" t="b">
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9764344692230225</v>
+        <v>0.9972357153892517</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9967247843742371</v>
+        <v>0.9973281621932983</v>
       </c>
     </row>
     <row r="62">
@@ -2158,19 +2158,19 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E62" t="b">
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9825909733772278</v>
+        <v>0.9973082542419434</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9966762065887451</v>
+        <v>0.9973407387733459</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E64" t="b">
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.982720673084259</v>
+        <v>0.9972957968711853</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9966697096824646</v>
+        <v>0.9862270951271057</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9965511560440063</v>
+        <v>0.9923413991928101</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9966775178909302</v>
+        <v>0.9973132014274597</v>
       </c>
     </row>
     <row r="68">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2335,10 +2335,10 @@
         </is>
       </c>
       <c r="E68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9848529100418091</v>
+        <v>0.9973152279853821</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9966891407966614</v>
+        <v>0.9973127245903015</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9966795444488525</v>
+        <v>0.997345507144928</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9965894222259521</v>
+        <v>0.9922010898590088</v>
       </c>
     </row>
     <row r="72">
@@ -2443,14 +2443,14 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9966921806335449</v>
+        <v>0.9914174675941467</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9966788291931152</v>
+        <v>0.9864873290061951</v>
       </c>
     </row>
     <row r="74">
@@ -2494,19 +2494,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E74" t="b">
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9772924184799194</v>
+        <v>0.9973354935646057</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9964170455932617</v>
+        <v>0.9973357319831848</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9783245921134949</v>
+        <v>0.9973191618919373</v>
       </c>
     </row>
     <row r="77">
@@ -2578,19 +2578,19 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.974806547164917</v>
+        <v>0.9972948431968689</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.982795774936676</v>
+        <v>0.9708170890808105</v>
       </c>
     </row>
     <row r="79">
@@ -2634,19 +2634,19 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E79" t="b">
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9966762065887451</v>
+        <v>0.9922254085540771</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9966781139373779</v>
+        <v>0.9973552227020264</v>
       </c>
     </row>
     <row r="81">
@@ -2690,19 +2690,19 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>0.982560932636261</v>
+        <v>0.9663698077201843</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.6487963795661926</v>
+        <v>0.9972315430641174</v>
       </c>
     </row>
     <row r="83">
@@ -2746,19 +2746,19 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E83" t="b">
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9966936111450195</v>
+        <v>0.9920876622200012</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9966999888420105</v>
+        <v>0.9973167777061462</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E85" t="b">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9565236568450928</v>
+        <v>0.9973307847976685</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9966791868209839</v>
+        <v>0.9972834587097168</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9967026114463806</v>
+        <v>0.9972980618476868</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9772924184799194</v>
+        <v>0.9973363280296326</v>
       </c>
     </row>
     <row r="89">
@@ -2914,19 +2914,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E89" t="b">
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9966939687728882</v>
+        <v>0.97087562084198</v>
       </c>
     </row>
     <row r="90">
@@ -2942,19 +2942,19 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E90" t="b">
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9967097043991089</v>
+        <v>0.5135361552238464</v>
       </c>
     </row>
     <row r="91">
@@ -2970,19 +2970,19 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E91" t="b">
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9966855645179749</v>
+        <v>0.9920716881752014</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9967001080513</v>
+        <v>0.9973192811012268</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9966393709182739</v>
+        <v>0.9973118305206299</v>
       </c>
     </row>
     <row r="94">
@@ -3054,19 +3054,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9244282841682434</v>
+        <v>0.9629013538360596</v>
       </c>
     </row>
     <row r="95">
@@ -3082,19 +3082,19 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E95" t="b">
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9823355078697205</v>
+        <v>0.9973180890083313</v>
       </c>
     </row>
     <row r="96">
@@ -3115,14 +3115,14 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.8099486827850342</v>
+        <v>0.9973132014274597</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9954828023910522</v>
+        <v>0.9922692775726318</v>
       </c>
     </row>
     <row r="98">
@@ -3166,19 +3166,19 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E98" t="b">
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9824329614639282</v>
+        <v>0.9973253011703491</v>
       </c>
     </row>
     <row r="99">
@@ -3194,19 +3194,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E99" t="b">
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.8120047450065613</v>
+        <v>0.9968904852867126</v>
       </c>
     </row>
     <row r="100">
@@ -3222,19 +3222,19 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9966451525688171</v>
+        <v>0.9026811718940735</v>
       </c>
     </row>
     <row r="101">
@@ -3250,19 +3250,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E101" t="b">
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9824152588844299</v>
+        <v>0.9973084926605225</v>
       </c>
     </row>
     <row r="102">
@@ -3283,14 +3283,14 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>0.996684730052948</v>
+        <v>0.9914588928222656</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9966762065887451</v>
+        <v>0.9973376393318176</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9966006875038147</v>
+        <v>0.9973364472389221</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9967014193534851</v>
+        <v>0.9973084926605225</v>
       </c>
     </row>
     <row r="106">
@@ -3390,19 +3390,19 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E106" t="b">
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9967327117919922</v>
+        <v>0.7033819556236267</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E107" t="b">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9564133882522583</v>
+        <v>0.9973071813583374</v>
       </c>
     </row>
     <row r="108">
@@ -3451,14 +3451,14 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>0.967770516872406</v>
+        <v>0.9970742464065552</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9967008233070374</v>
+        <v>0.9972857236862183</v>
       </c>
     </row>
     <row r="110">
@@ -3502,19 +3502,19 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E110" t="b">
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.974984884262085</v>
+        <v>0.9973382353782654</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9966691136360168</v>
+        <v>0.8613356351852417</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9967221617698669</v>
+        <v>0.9973236322402954</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9966762065887451</v>
+        <v>0.9972777962684631</v>
       </c>
     </row>
     <row r="114">
@@ -3614,19 +3614,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E114" t="b">
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9757009148597717</v>
+        <v>0.997336208820343</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9312236309051514</v>
+        <v>0.9947826266288757</v>
       </c>
     </row>
     <row r="116">
@@ -3670,19 +3670,19 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E116" t="b">
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9827903509140015</v>
+        <v>0.986339807510376</v>
       </c>
     </row>
     <row r="117">
@@ -3698,19 +3698,19 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E117" t="b">
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9558624625205994</v>
+        <v>0.9973084926605225</v>
       </c>
     </row>
     <row r="118">
@@ -3738,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9967114925384521</v>
+        <v>0.9973354935646057</v>
       </c>
     </row>
     <row r="119">
@@ -3754,19 +3754,19 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E119" t="b">
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9965975880622864</v>
+        <v>0.9920720458030701</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9966805577278137</v>
+        <v>0.9973236322402954</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E121" t="b">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9967266321182251</v>
+        <v>0.9126517176628113</v>
       </c>
     </row>
     <row r="122">
@@ -3838,19 +3838,19 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E122" t="b">
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.8575327396392822</v>
+        <v>0.9972971081733704</v>
       </c>
     </row>
     <row r="123">
@@ -3871,14 +3871,14 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9743283987045288</v>
+        <v>0.9861141443252563</v>
       </c>
     </row>
     <row r="124">
@@ -3894,19 +3894,19 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E124" t="b">
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9821743965148926</v>
+        <v>0.997283935546875</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9966920614242554</v>
+        <v>0.9973171353340149</v>
       </c>
     </row>
     <row r="126">
@@ -3950,19 +3950,19 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E126" t="b">
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9827903509140015</v>
+        <v>0.7915059328079224</v>
       </c>
     </row>
     <row r="127">
@@ -3978,19 +3978,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E127" t="b">
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9964710474014282</v>
+        <v>0.9921922087669373</v>
       </c>
     </row>
     <row r="128">
@@ -4006,19 +4006,19 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E128" t="b">
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9766132831573486</v>
+        <v>0.9972807168960571</v>
       </c>
     </row>
     <row r="129">
@@ -4034,19 +4034,19 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E129" t="b">
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9967086315155029</v>
+        <v>0.9921922087669373</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9966891407966614</v>
+        <v>0.9973324537277222</v>
       </c>
     </row>
     <row r="131">
@@ -4090,19 +4090,19 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E131" t="b">
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9961899518966675</v>
+        <v>0.9917186498641968</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9966492056846619</v>
+        <v>0.9973115921020508</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9966968297958374</v>
+        <v>0.9973084926605225</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9967142343521118</v>
+        <v>0.997310996055603</v>
       </c>
     </row>
     <row r="135">
@@ -4202,19 +4202,19 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>0.6451403498649597</v>
+        <v>0.986596405506134</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9892041087150574</v>
+        <v>0.9973303079605103</v>
       </c>
     </row>
     <row r="137">
@@ -4263,14 +4263,14 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9814565181732178</v>
+        <v>0.9972869157791138</v>
       </c>
     </row>
     <row r="138">
@@ -4286,19 +4286,19 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E138" t="b">
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.957895040512085</v>
+        <v>0.9973119497299194</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9967017769813538</v>
+        <v>0.9972357153892517</v>
       </c>
     </row>
     <row r="140">
@@ -4342,19 +4342,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E140" t="b">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9966475367546082</v>
+        <v>0.9862270951271057</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.996677041053772</v>
+        <v>0.9973382353782654</v>
       </c>
     </row>
     <row r="142">
@@ -4398,19 +4398,19 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E142" t="b">
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9775474071502686</v>
+        <v>0.9973188042640686</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9967137575149536</v>
+        <v>0.9973236322402954</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.996673583984375</v>
+        <v>0.9972359538078308</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9966505169868469</v>
+        <v>0.9206748008728027</v>
       </c>
     </row>
     <row r="146">
@@ -4510,19 +4510,19 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E146" t="b">
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9966891407966614</v>
+        <v>0.9860122799873352</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9769022464752197</v>
+        <v>0.9973273277282715</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.996665894985199</v>
+        <v>0.9973229765892029</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9965952038764954</v>
+        <v>0.9973076581954956</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9713028073310852</v>
+        <v>0.9973145127296448</v>
       </c>
     </row>
     <row r="151">
@@ -4655,14 +4655,14 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9966762065887451</v>
+        <v>0.9604067206382751</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9966762065887451</v>
+        <v>0.9973052740097046</v>
       </c>
     </row>
     <row r="153">
@@ -4706,19 +4706,19 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E153" t="b">
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9827903509140015</v>
+        <v>0.997334897518158</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9965988993644714</v>
+        <v>0.9864820241928101</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9967076778411865</v>
+        <v>0.9973496198654175</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9967167973518372</v>
+        <v>0.9972686767578125</v>
       </c>
     </row>
     <row r="157">
@@ -4818,19 +4818,19 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E157" t="b">
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9911649823188782</v>
+        <v>0.9641169309616089</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9966762065887451</v>
+        <v>0.9769326448440552</v>
       </c>
     </row>
     <row r="159">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4883,10 +4883,10 @@
         </is>
       </c>
       <c r="E159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>0.99669349193573</v>
+        <v>0.9698399305343628</v>
       </c>
     </row>
     <row r="160">
@@ -4902,19 +4902,19 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E160" t="b">
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9775236845016479</v>
+        <v>0.9973084926605225</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.996650755405426</v>
+        <v>0.9972467422485352</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>1</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9966981410980225</v>
+        <v>0.9973255395889282</v>
       </c>
     </row>
     <row r="163">
@@ -4986,19 +4986,19 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E163" t="b">
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9776346683502197</v>
+        <v>0.9973016977310181</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E164" t="b">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9826651811599731</v>
+        <v>0.9973560571670532</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9966662526130676</v>
+        <v>0.997327446937561</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9966422319412231</v>
+        <v>0.997345507144928</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9967318773269653</v>
+        <v>0.9973033666610718</v>
       </c>
     </row>
     <row r="168">
@@ -5138,7 +5138,7 @@
         <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9826921224594116</v>
+        <v>0.9922692775726318</v>
       </c>
     </row>
     <row r="169">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -5163,10 +5163,10 @@
         </is>
       </c>
       <c r="E169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9303323030471802</v>
+        <v>0.9973650574684143</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9966327548027039</v>
+        <v>0.9922692775726318</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9966757297515869</v>
+        <v>0.9973084926605225</v>
       </c>
     </row>
     <row r="172">
@@ -5238,19 +5238,19 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E172" t="b">
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9966244697570801</v>
+        <v>0.9678937196731567</v>
       </c>
     </row>
     <row r="173">
@@ -5266,19 +5266,19 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E173" t="b">
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9966737031936646</v>
+        <v>0.992077648639679</v>
       </c>
     </row>
     <row r="174">
@@ -5294,19 +5294,19 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9966579675674438</v>
+        <v>0.9870923757553101</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.996565043926239</v>
+        <v>0.9973405003547668</v>
       </c>
     </row>
     <row r="176">
@@ -5350,19 +5350,19 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E176" t="b">
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9825261831283569</v>
+        <v>0.9693601131439209</v>
       </c>
     </row>
     <row r="177">
@@ -5378,19 +5378,19 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9766876101493835</v>
+        <v>0.9962193369865417</v>
       </c>
     </row>
     <row r="178">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E178" t="b">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9825261831283569</v>
+        <v>0.9972647428512573</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9967001080513</v>
+        <v>0.9972761273384094</v>
       </c>
     </row>
     <row r="180">
@@ -5462,19 +5462,19 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E180" t="b">
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9967018961906433</v>
+        <v>0.9771046042442322</v>
       </c>
     </row>
     <row r="181">
@@ -5490,19 +5490,19 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E181" t="b">
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9966375827789307</v>
+        <v>0.9920161962509155</v>
       </c>
     </row>
     <row r="182">
@@ -5518,19 +5518,19 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E182" t="b">
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9766132831573486</v>
+        <v>0.9922254085540771</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.7210216522216797</v>
+        <v>0.9218116998672485</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9966666102409363</v>
+        <v>0.9943487048149109</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.6617893576622009</v>
+        <v>0.997323751449585</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E186" t="b">
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9780910611152649</v>
+        <v>0.997327446937561</v>
       </c>
     </row>
     <row r="187">
@@ -5658,19 +5658,19 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E187" t="b">
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.8920709490776062</v>
+        <v>0.9972913861274719</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9966543912887573</v>
+        <v>0.9970784187316895</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E189" t="b">
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9967195391654968</v>
+        <v>0.6335396766662598</v>
       </c>
     </row>
     <row r="190">
@@ -5742,19 +5742,19 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E190" t="b">
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9558508396148682</v>
+        <v>0.9973347187042236</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9964839220046997</v>
+        <v>0.9972925782203674</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9966986775398254</v>
+        <v>0.997328519821167</v>
       </c>
     </row>
     <row r="193">
@@ -5826,19 +5826,19 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E193" t="b">
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9773579835891724</v>
+        <v>0.9921935796737671</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9966816306114197</v>
+        <v>0.9973457455635071</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.996712327003479</v>
+        <v>0.9972617626190186</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9966762065887451</v>
+        <v>0.9973084926605225</v>
       </c>
     </row>
     <row r="197">
@@ -5938,19 +5938,19 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E197" t="b">
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9770747423171997</v>
+        <v>0.9922254085540771</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.8252741694450378</v>
+        <v>0.9973514080047607</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E199" t="b">
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9553600549697876</v>
+        <v>0.997330904006958</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E200" t="b">
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.7293189167976379</v>
+        <v>0.9829368591308594</v>
       </c>
     </row>
     <row r="201">
@@ -6050,19 +6050,19 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E201" t="b">
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9743283987045288</v>
+        <v>0.9973401427268982</v>
       </c>
     </row>
     <row r="202">
@@ -6078,19 +6078,19 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E202" t="b">
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9824152588844299</v>
+        <v>0.9973112344741821</v>
       </c>
     </row>
     <row r="203">
@@ -6106,19 +6106,19 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E203" t="b">
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9966855645179749</v>
+        <v>0.9710845351219177</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9777318835258484</v>
+        <v>0.9865830540657043</v>
       </c>
     </row>
     <row r="205">
@@ -6162,19 +6162,19 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E205" t="b">
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9830195307731628</v>
+        <v>0.9972947239875793</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9966842532157898</v>
+        <v>0.9973061084747314</v>
       </c>
     </row>
     <row r="207">
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.9966956377029419</v>
+        <v>0.9973078966140747</v>
       </c>
     </row>
     <row r="208">
@@ -6246,19 +6246,19 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E208" t="b">
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.8182406425476074</v>
+        <v>0.9973219037055969</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9966769218444824</v>
+        <v>0.9973189234733582</v>
       </c>
     </row>
     <row r="210">
@@ -6302,19 +6302,19 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E210" t="b">
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9967126846313477</v>
+        <v>0.9714112281799316</v>
       </c>
     </row>
   </sheetData>
